--- a/DB_Excel/SeatsDB.xlsx
+++ b/DB_Excel/SeatsDB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ComicBook\DB_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="18075" windowHeight="11370"/>
+    <workbookView xWindow="720" yWindow="372" windowWidth="18072" windowHeight="11376"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,6 +108,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -150,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +191,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,6 +243,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,18 +436,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E771"/>
+  <dimension ref="A1:D771"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -418,9 +461,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -448,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -462,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -476,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -490,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -504,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -518,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -532,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -546,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -560,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -574,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -588,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -602,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -616,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -630,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -644,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -658,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
@@ -672,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -686,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -700,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -714,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -728,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -742,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -756,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -770,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1</v>
       </c>
@@ -784,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -798,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -812,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -826,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1</v>
       </c>
@@ -840,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1</v>
       </c>
@@ -854,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1</v>
       </c>
@@ -868,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
@@ -882,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1</v>
       </c>
@@ -896,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -910,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
@@ -924,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1</v>
       </c>
@@ -938,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1</v>
       </c>
@@ -952,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1</v>
       </c>
@@ -966,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1</v>
       </c>
@@ -980,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -994,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1008,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1022,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1036,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1050,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1064,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1078,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1092,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1106,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1120,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1134,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1148,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1162,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1176,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1190,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1204,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1218,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1232,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1246,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1260,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1274,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1288,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1302,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1316,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1330,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1344,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1358,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1372,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1386,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1400,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>2</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1428,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1442,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>2</v>
       </c>
@@ -1456,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1470,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1484,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>2</v>
       </c>
@@ -1498,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>2</v>
       </c>
@@ -1512,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>2</v>
       </c>
@@ -1526,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>2</v>
       </c>
@@ -1540,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>2</v>
       </c>
@@ -1554,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>2</v>
       </c>
@@ -1568,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1582,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>2</v>
       </c>
@@ -1596,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>2</v>
       </c>
@@ -1610,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1624,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>2</v>
       </c>
@@ -1638,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>2</v>
       </c>
@@ -1652,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>2</v>
       </c>
@@ -1666,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>2</v>
       </c>
@@ -1680,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>2</v>
       </c>
@@ -1694,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>2</v>
       </c>
@@ -1708,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>2</v>
       </c>
@@ -1722,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>2</v>
       </c>
@@ -1736,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>2</v>
       </c>
@@ -1750,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>2</v>
       </c>
@@ -1764,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>2</v>
       </c>
@@ -1778,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>2</v>
       </c>
@@ -1792,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>2</v>
       </c>
@@ -1806,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>2</v>
       </c>
@@ -1820,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>2</v>
       </c>
@@ -1834,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>2</v>
       </c>
@@ -1848,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>2</v>
       </c>
@@ -1862,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>2</v>
       </c>
@@ -1876,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>2</v>
       </c>
@@ -1890,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>2</v>
       </c>
@@ -1904,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>2</v>
       </c>
@@ -1918,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>2</v>
       </c>
@@ -1932,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>2</v>
       </c>
@@ -1946,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>2</v>
       </c>
@@ -1960,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>2</v>
       </c>
@@ -1974,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>2</v>
       </c>
@@ -1988,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>2</v>
       </c>
@@ -2002,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>2</v>
       </c>
@@ -2016,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>2</v>
       </c>
@@ -2030,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>2</v>
       </c>
@@ -2044,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>2</v>
       </c>
@@ -2058,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>2</v>
       </c>
@@ -2072,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>2</v>
       </c>
@@ -2086,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>2</v>
       </c>
@@ -2100,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>2</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>2</v>
       </c>
@@ -2128,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>2</v>
       </c>
@@ -2142,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>2</v>
       </c>
@@ -2156,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>2</v>
       </c>
@@ -2170,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>2</v>
       </c>
@@ -2184,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>2</v>
       </c>
@@ -2198,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>2</v>
       </c>
@@ -2212,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>2</v>
       </c>
@@ -2226,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>2</v>
       </c>
@@ -2240,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>2</v>
       </c>
@@ -2254,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>2</v>
       </c>
@@ -2268,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>2</v>
       </c>
@@ -2282,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>2</v>
       </c>
@@ -2296,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>2</v>
       </c>
@@ -2310,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>2</v>
       </c>
@@ -2324,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>2</v>
       </c>
@@ -2338,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>2</v>
       </c>
@@ -2352,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>2</v>
       </c>
@@ -2366,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>2</v>
       </c>
@@ -2380,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>3</v>
       </c>
@@ -2394,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>3</v>
       </c>
@@ -2408,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>3</v>
       </c>
@@ -2422,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>3</v>
       </c>
@@ -2436,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>3</v>
       </c>
@@ -2450,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>3</v>
       </c>
@@ -2464,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>3</v>
       </c>
@@ -2478,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>3</v>
       </c>
@@ -2492,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>3</v>
       </c>
@@ -2506,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>3</v>
       </c>
@@ -2520,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>3</v>
       </c>
@@ -2534,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>3</v>
       </c>
@@ -2548,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>3</v>
       </c>
@@ -2562,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>3</v>
       </c>
@@ -2576,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>3</v>
       </c>
@@ -2590,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>3</v>
       </c>
@@ -2604,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>3</v>
       </c>
@@ -2618,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>3</v>
       </c>
@@ -2632,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>3</v>
       </c>
@@ -2646,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>3</v>
       </c>
@@ -2660,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>3</v>
       </c>
@@ -2674,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>3</v>
       </c>
@@ -2688,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>3</v>
       </c>
@@ -2702,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>3</v>
       </c>
@@ -2716,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>3</v>
       </c>
@@ -2730,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>3</v>
       </c>
@@ -2744,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>3</v>
       </c>
@@ -2758,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>3</v>
       </c>
@@ -2772,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>3</v>
       </c>
@@ -2786,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>3</v>
       </c>
@@ -2800,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>3</v>
       </c>
@@ -2814,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>3</v>
       </c>
@@ -2828,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>3</v>
       </c>
@@ -2842,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>3</v>
       </c>
@@ -2856,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>3</v>
       </c>
@@ -2870,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>3</v>
       </c>
@@ -2884,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>3</v>
       </c>
@@ -2898,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>3</v>
       </c>
@@ -2912,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>3</v>
       </c>
@@ -2926,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>3</v>
       </c>
@@ -2940,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>3</v>
       </c>
@@ -2954,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>3</v>
       </c>
@@ -2968,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>3</v>
       </c>
@@ -2982,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>3</v>
       </c>
@@ -2996,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>3</v>
       </c>
@@ -3010,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>3</v>
       </c>
@@ -3024,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>3</v>
       </c>
@@ -3038,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>3</v>
       </c>
@@ -3052,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>3</v>
       </c>
@@ -3066,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>3</v>
       </c>
@@ -3080,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>3</v>
       </c>
@@ -3094,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>3</v>
       </c>
@@ -3108,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>3</v>
       </c>
@@ -3122,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>3</v>
       </c>
@@ -3136,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>3</v>
       </c>
@@ -3150,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>3</v>
       </c>
@@ -3164,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>3</v>
       </c>
@@ -3178,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>3</v>
       </c>
@@ -3192,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>3</v>
       </c>
@@ -3206,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>3</v>
       </c>
@@ -3220,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>3</v>
       </c>
@@ -3234,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>3</v>
       </c>
@@ -3248,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>3</v>
       </c>
@@ -3262,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>3</v>
       </c>
@@ -3276,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>3</v>
       </c>
@@ -3290,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>3</v>
       </c>
@@ -3304,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>3</v>
       </c>
@@ -3318,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>3</v>
       </c>
@@ -3332,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>3</v>
       </c>
@@ -3346,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>3</v>
       </c>
@@ -3360,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>4</v>
       </c>
@@ -3374,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>4</v>
       </c>
@@ -3388,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>4</v>
       </c>
@@ -3402,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>4</v>
       </c>
@@ -3416,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>4</v>
       </c>
@@ -3430,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>4</v>
       </c>
@@ -3444,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>4</v>
       </c>
@@ -3458,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>4</v>
       </c>
@@ -3472,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>4</v>
       </c>
@@ -3486,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>4</v>
       </c>
@@ -3500,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>4</v>
       </c>
@@ -3514,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>4</v>
       </c>
@@ -3528,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>4</v>
       </c>
@@ -3542,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>4</v>
       </c>
@@ -3556,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>4</v>
       </c>
@@ -3570,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>4</v>
       </c>
@@ -3584,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>4</v>
       </c>
@@ -3598,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>4</v>
       </c>
@@ -3612,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>4</v>
       </c>
@@ -3626,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>4</v>
       </c>
@@ -3640,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>4</v>
       </c>
@@ -3654,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>4</v>
       </c>
@@ -3668,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>4</v>
       </c>
@@ -3682,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>4</v>
       </c>
@@ -3696,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>4</v>
       </c>
@@ -3710,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>4</v>
       </c>
@@ -3724,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>4</v>
       </c>
@@ -3738,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>4</v>
       </c>
@@ -3752,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>4</v>
       </c>
@@ -3766,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>4</v>
       </c>
@@ -3780,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>4</v>
       </c>
@@ -3794,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>4</v>
       </c>
@@ -3808,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>4</v>
       </c>
@@ -3822,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>4</v>
       </c>
@@ -3836,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>4</v>
       </c>
@@ -3850,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>4</v>
       </c>
@@ -3864,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>4</v>
       </c>
@@ -3878,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>4</v>
       </c>
@@ -3892,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>4</v>
       </c>
@@ -3906,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>4</v>
       </c>
@@ -3920,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>4</v>
       </c>
@@ -3934,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>4</v>
       </c>
@@ -3948,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>4</v>
       </c>
@@ -3962,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>4</v>
       </c>
@@ -3976,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>4</v>
       </c>
@@ -3990,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>4</v>
       </c>
@@ -4004,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>4</v>
       </c>
@@ -4018,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>4</v>
       </c>
@@ -4032,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>4</v>
       </c>
@@ -4046,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>4</v>
       </c>
@@ -4060,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>4</v>
       </c>
@@ -4074,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>4</v>
       </c>
@@ -4088,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>4</v>
       </c>
@@ -4102,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>4</v>
       </c>
@@ -4116,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>4</v>
       </c>
@@ -4130,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>4</v>
       </c>
@@ -4144,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>4</v>
       </c>
@@ -4158,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>4</v>
       </c>
@@ -4172,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>4</v>
       </c>
@@ -4186,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>4</v>
       </c>
@@ -4200,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>4</v>
       </c>
@@ -4214,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>4</v>
       </c>
@@ -4228,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>4</v>
       </c>
@@ -4242,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>4</v>
       </c>
@@ -4256,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>4</v>
       </c>
@@ -4270,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>4</v>
       </c>
@@ -4284,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>4</v>
       </c>
@@ -4298,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>4</v>
       </c>
@@ -4312,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>4</v>
       </c>
@@ -4326,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>4</v>
       </c>
@@ -4340,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>5</v>
       </c>
@@ -4354,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>5</v>
       </c>
@@ -4368,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>5</v>
       </c>
@@ -4382,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>5</v>
       </c>
@@ -4396,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>5</v>
       </c>
@@ -4410,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>5</v>
       </c>
@@ -4424,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>5</v>
       </c>
@@ -4438,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>5</v>
       </c>
@@ -4452,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>5</v>
       </c>
@@ -4466,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>5</v>
       </c>
@@ -4480,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>5</v>
       </c>
@@ -4494,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>5</v>
       </c>
@@ -4508,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>5</v>
       </c>
@@ -4522,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>5</v>
       </c>
@@ -4536,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>5</v>
       </c>
@@ -4550,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>5</v>
       </c>
@@ -4564,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>5</v>
       </c>
@@ -4578,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>5</v>
       </c>
@@ -4592,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>5</v>
       </c>
@@ -4606,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>5</v>
       </c>
@@ -4620,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>5</v>
       </c>
@@ -4634,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>5</v>
       </c>
@@ -4648,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>5</v>
       </c>
@@ -4662,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>5</v>
       </c>
@@ -4676,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>5</v>
       </c>
@@ -4690,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>5</v>
       </c>
@@ -4704,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>5</v>
       </c>
@@ -4718,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>5</v>
       </c>
@@ -4732,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>5</v>
       </c>
@@ -4746,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>5</v>
       </c>
@@ -4760,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>5</v>
       </c>
@@ -4774,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>5</v>
       </c>
@@ -4788,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>5</v>
       </c>
@@ -4802,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>5</v>
       </c>
@@ -4816,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>5</v>
       </c>
@@ -4830,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>5</v>
       </c>
@@ -4844,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>5</v>
       </c>
@@ -4858,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>5</v>
       </c>
@@ -4872,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>5</v>
       </c>
@@ -4886,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>5</v>
       </c>
@@ -4900,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>5</v>
       </c>
@@ -4914,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>5</v>
       </c>
@@ -4928,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>5</v>
       </c>
@@ -4942,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>5</v>
       </c>
@@ -4956,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>5</v>
       </c>
@@ -4970,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>5</v>
       </c>
@@ -4984,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>5</v>
       </c>
@@ -4998,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>5</v>
       </c>
@@ -5012,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>5</v>
       </c>
@@ -5026,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>5</v>
       </c>
@@ -5040,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>5</v>
       </c>
@@ -5054,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>5</v>
       </c>
@@ -5068,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>5</v>
       </c>
@@ -5082,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>5</v>
       </c>
@@ -5096,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>5</v>
       </c>
@@ -5110,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>5</v>
       </c>
@@ -5124,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>5</v>
       </c>
@@ -5138,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>5</v>
       </c>
@@ -5152,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>5</v>
       </c>
@@ -5166,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>5</v>
       </c>
@@ -5180,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>5</v>
       </c>
@@ -5194,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>5</v>
       </c>
@@ -5208,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>5</v>
       </c>
@@ -5222,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>5</v>
       </c>
@@ -5236,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>5</v>
       </c>
@@ -5250,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>5</v>
       </c>
@@ -5264,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>5</v>
       </c>
@@ -5278,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>5</v>
       </c>
@@ -5292,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>5</v>
       </c>
@@ -5306,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>5</v>
       </c>
@@ -5320,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>6</v>
       </c>
@@ -5334,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>6</v>
       </c>
@@ -5348,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>6</v>
       </c>
@@ -5362,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>6</v>
       </c>
@@ -5376,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>6</v>
       </c>
@@ -5390,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>6</v>
       </c>
@@ -5404,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>6</v>
       </c>
@@ -5418,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>6</v>
       </c>
@@ -5432,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>6</v>
       </c>
@@ -5446,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>6</v>
       </c>
@@ -5460,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>6</v>
       </c>
@@ -5474,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>6</v>
       </c>
@@ -5488,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>6</v>
       </c>
@@ -5502,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>6</v>
       </c>
@@ -5516,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>6</v>
       </c>
@@ -5530,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>6</v>
       </c>
@@ -5544,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>6</v>
       </c>
@@ -5558,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>6</v>
       </c>
@@ -5572,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>6</v>
       </c>
@@ -5586,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>6</v>
       </c>
@@ -5600,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>6</v>
       </c>
@@ -5614,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>6</v>
       </c>
@@ -5628,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>6</v>
       </c>
@@ -5642,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>6</v>
       </c>
@@ -5656,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>6</v>
       </c>
@@ -5670,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>6</v>
       </c>
@@ -5684,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>6</v>
       </c>
@@ -5698,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>6</v>
       </c>
@@ -5712,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>6</v>
       </c>
@@ -5726,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>6</v>
       </c>
@@ -5740,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>6</v>
       </c>
@@ -5754,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>6</v>
       </c>
@@ -5768,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>6</v>
       </c>
@@ -5782,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>6</v>
       </c>
@@ -5796,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>6</v>
       </c>
@@ -5810,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>6</v>
       </c>
@@ -5824,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>6</v>
       </c>
@@ -5838,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>6</v>
       </c>
@@ -5852,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>6</v>
       </c>
@@ -5866,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>6</v>
       </c>
@@ -5880,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>6</v>
       </c>
@@ -5894,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>6</v>
       </c>
@@ -5908,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>6</v>
       </c>
@@ -5922,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>6</v>
       </c>
@@ -5936,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>6</v>
       </c>
@@ -5950,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>6</v>
       </c>
@@ -5964,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>6</v>
       </c>
@@ -5978,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>6</v>
       </c>
@@ -5992,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>6</v>
       </c>
@@ -6006,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>6</v>
       </c>
@@ -6020,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>6</v>
       </c>
@@ -6034,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>6</v>
       </c>
@@ -6048,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>6</v>
       </c>
@@ -6062,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>6</v>
       </c>
@@ -6076,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>6</v>
       </c>
@@ -6090,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>6</v>
       </c>
@@ -6104,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>6</v>
       </c>
@@ -6118,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>6</v>
       </c>
@@ -6132,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>6</v>
       </c>
@@ -6146,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>6</v>
       </c>
@@ -6160,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>6</v>
       </c>
@@ -6174,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>6</v>
       </c>
@@ -6188,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>6</v>
       </c>
@@ -6202,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>6</v>
       </c>
@@ -6216,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>6</v>
       </c>
@@ -6230,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>6</v>
       </c>
@@ -6244,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>6</v>
       </c>
@@ -6258,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>6</v>
       </c>
@@ -6272,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>6</v>
       </c>
@@ -6286,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>6</v>
       </c>
@@ -6300,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>7</v>
       </c>
@@ -6314,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>7</v>
       </c>
@@ -6328,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>7</v>
       </c>
@@ -6342,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>7</v>
       </c>
@@ -6356,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>7</v>
       </c>
@@ -6370,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>7</v>
       </c>
@@ -6384,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>7</v>
       </c>
@@ -6398,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>7</v>
       </c>
@@ -6412,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>7</v>
       </c>
@@ -6426,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>7</v>
       </c>
@@ -6440,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>7</v>
       </c>
@@ -6454,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>7</v>
       </c>
@@ -6468,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>7</v>
       </c>
@@ -6482,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>7</v>
       </c>
@@ -6496,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>7</v>
       </c>
@@ -6510,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>7</v>
       </c>
@@ -6524,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>7</v>
       </c>
@@ -6538,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>7</v>
       </c>
@@ -6552,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>7</v>
       </c>
@@ -6566,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>7</v>
       </c>
@@ -6580,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>7</v>
       </c>
@@ -6594,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>7</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>7</v>
       </c>
@@ -6622,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>7</v>
       </c>
@@ -6636,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>7</v>
       </c>
@@ -6650,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>7</v>
       </c>
@@ -6664,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>7</v>
       </c>
@@ -6678,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>7</v>
       </c>
@@ -6692,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>7</v>
       </c>
@@ -6706,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>7</v>
       </c>
@@ -6720,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>7</v>
       </c>
@@ -6734,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>7</v>
       </c>
@@ -6748,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>7</v>
       </c>
@@ -6762,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>7</v>
       </c>
@@ -6776,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>7</v>
       </c>
@@ -6790,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>7</v>
       </c>
@@ -6804,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>7</v>
       </c>
@@ -6818,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>7</v>
       </c>
@@ -6832,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>7</v>
       </c>
@@ -6846,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>7</v>
       </c>
@@ -6860,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>7</v>
       </c>
@@ -6874,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>7</v>
       </c>
@@ -6888,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>7</v>
       </c>
@@ -6902,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>7</v>
       </c>
@@ -6916,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>7</v>
       </c>
@@ -6930,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>7</v>
       </c>
@@ -6944,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>7</v>
       </c>
@@ -6958,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>7</v>
       </c>
@@ -6972,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>7</v>
       </c>
@@ -6986,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>7</v>
       </c>
@@ -7000,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>7</v>
       </c>
@@ -7014,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>7</v>
       </c>
@@ -7028,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>7</v>
       </c>
@@ -7042,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>7</v>
       </c>
@@ -7056,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>7</v>
       </c>
@@ -7070,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>7</v>
       </c>
@@ -7084,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>7</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>7</v>
       </c>
@@ -7112,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>7</v>
       </c>
@@ -7126,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>7</v>
       </c>
@@ -7140,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>7</v>
       </c>
@@ -7154,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>7</v>
       </c>
@@ -7168,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>7</v>
       </c>
@@ -7182,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>7</v>
       </c>
@@ -7196,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>7</v>
       </c>
@@ -7210,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>7</v>
       </c>
@@ -7224,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>7</v>
       </c>
@@ -7238,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>7</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>7</v>
       </c>
@@ -7266,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>7</v>
       </c>
@@ -7280,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>8</v>
       </c>
@@ -7294,7 +7336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>8</v>
       </c>
@@ -7308,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>8</v>
       </c>
@@ -7322,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>8</v>
       </c>
@@ -7336,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>8</v>
       </c>
@@ -7350,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>8</v>
       </c>
@@ -7364,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>8</v>
       </c>
@@ -7378,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>8</v>
       </c>
@@ -7392,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>8</v>
       </c>
@@ -7406,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>8</v>
       </c>
@@ -7420,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>8</v>
       </c>
@@ -7434,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>8</v>
       </c>
@@ -7448,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>8</v>
       </c>
@@ -7462,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>8</v>
       </c>
@@ -7476,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>8</v>
       </c>
@@ -7490,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>8</v>
       </c>
@@ -7504,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>8</v>
       </c>
@@ -7518,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>8</v>
       </c>
@@ -7532,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>8</v>
       </c>
@@ -7546,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>8</v>
       </c>
@@ -7560,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>8</v>
       </c>
@@ -7574,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>8</v>
       </c>
@@ -7588,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>8</v>
       </c>
@@ -7602,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>8</v>
       </c>
@@ -7616,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>8</v>
       </c>
@@ -7630,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>8</v>
       </c>
@@ -7644,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>8</v>
       </c>
@@ -7658,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>8</v>
       </c>
@@ -7672,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>8</v>
       </c>
@@ -7686,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>8</v>
       </c>
@@ -7700,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>8</v>
       </c>
@@ -7714,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>8</v>
       </c>
@@ -7728,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>8</v>
       </c>
@@ -7742,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>8</v>
       </c>
@@ -7756,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>8</v>
       </c>
@@ -7770,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>8</v>
       </c>
@@ -7784,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>8</v>
       </c>
@@ -7798,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>8</v>
       </c>
@@ -7812,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>8</v>
       </c>
@@ -7826,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>8</v>
       </c>
@@ -7840,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>8</v>
       </c>
@@ -7854,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>8</v>
       </c>
@@ -7868,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>8</v>
       </c>
@@ -7882,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>8</v>
       </c>
@@ -7896,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>8</v>
       </c>
@@ -7910,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>8</v>
       </c>
@@ -7924,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>8</v>
       </c>
@@ -7938,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>8</v>
       </c>
@@ -7952,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>8</v>
       </c>
@@ -7966,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>8</v>
       </c>
@@ -7980,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>8</v>
       </c>
@@ -7994,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>8</v>
       </c>
@@ -8008,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>8</v>
       </c>
@@ -8022,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>8</v>
       </c>
@@ -8036,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>8</v>
       </c>
@@ -8050,7 +8092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>8</v>
       </c>
@@ -8064,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>8</v>
       </c>
@@ -8078,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>8</v>
       </c>
@@ -8092,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>8</v>
       </c>
@@ -8106,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>8</v>
       </c>
@@ -8120,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>8</v>
       </c>
@@ -8134,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>8</v>
       </c>
@@ -8148,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>8</v>
       </c>
@@ -8162,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>8</v>
       </c>
@@ -8176,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>8</v>
       </c>
@@ -8190,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>8</v>
       </c>
@@ -8204,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>8</v>
       </c>
@@ -8218,7 +8260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>8</v>
       </c>
@@ -8232,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>8</v>
       </c>
@@ -8246,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>8</v>
       </c>
@@ -8260,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>9</v>
       </c>
@@ -8274,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>9</v>
       </c>
@@ -8288,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>9</v>
       </c>
@@ -8302,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>9</v>
       </c>
@@ -8316,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>9</v>
       </c>
@@ -8330,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>9</v>
       </c>
@@ -8344,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>9</v>
       </c>
@@ -8358,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>9</v>
       </c>
@@ -8372,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>9</v>
       </c>
@@ -8386,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>9</v>
       </c>
@@ -8400,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>9</v>
       </c>
@@ -8414,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>9</v>
       </c>
@@ -8428,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>9</v>
       </c>
@@ -8442,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>9</v>
       </c>
@@ -8456,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>9</v>
       </c>
@@ -8470,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>9</v>
       </c>
@@ -8484,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>9</v>
       </c>
@@ -8498,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>9</v>
       </c>
@@ -8512,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>9</v>
       </c>
@@ -8526,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>9</v>
       </c>
@@ -8540,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>9</v>
       </c>
@@ -8554,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>9</v>
       </c>
@@ -8568,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>9</v>
       </c>
@@ -8582,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>9</v>
       </c>
@@ -8596,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>9</v>
       </c>
@@ -8610,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>9</v>
       </c>
@@ -8624,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>9</v>
       </c>
@@ -8638,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>9</v>
       </c>
@@ -8652,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>9</v>
       </c>
@@ -8666,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>9</v>
       </c>
@@ -8680,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>9</v>
       </c>
@@ -8694,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>9</v>
       </c>
@@ -8708,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>9</v>
       </c>
@@ -8722,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>9</v>
       </c>
@@ -8736,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>9</v>
       </c>
@@ -8750,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>9</v>
       </c>
@@ -8764,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>9</v>
       </c>
@@ -8778,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>9</v>
       </c>
@@ -8792,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>9</v>
       </c>
@@ -8806,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>9</v>
       </c>
@@ -8820,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>9</v>
       </c>
@@ -8834,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>9</v>
       </c>
@@ -8848,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>9</v>
       </c>
@@ -8862,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>9</v>
       </c>
@@ -8876,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>9</v>
       </c>
@@ -8890,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>9</v>
       </c>
@@ -8904,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>9</v>
       </c>
@@ -8918,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>9</v>
       </c>
@@ -8932,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>9</v>
       </c>
@@ -8946,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>9</v>
       </c>
@@ -8960,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>9</v>
       </c>
@@ -8974,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>9</v>
       </c>
@@ -8988,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>9</v>
       </c>
@@ -9002,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>9</v>
       </c>
@@ -9016,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>9</v>
       </c>
@@ -9030,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>9</v>
       </c>
@@ -9044,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>9</v>
       </c>
@@ -9058,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>9</v>
       </c>
@@ -9072,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>9</v>
       </c>
@@ -9086,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>9</v>
       </c>
@@ -9100,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>9</v>
       </c>
@@ -9114,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>9</v>
       </c>
@@ -9128,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>9</v>
       </c>
@@ -9142,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>9</v>
       </c>
@@ -9156,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>9</v>
       </c>
@@ -9170,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>9</v>
       </c>
@@ -9184,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>9</v>
       </c>
@@ -9198,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>9</v>
       </c>
@@ -9212,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>9</v>
       </c>
@@ -9226,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>9</v>
       </c>
@@ -9240,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>10</v>
       </c>
@@ -9254,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>10</v>
       </c>
@@ -9268,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>10</v>
       </c>
@@ -9282,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>10</v>
       </c>
@@ -9296,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>10</v>
       </c>
@@ -9310,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>10</v>
       </c>
@@ -9324,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>10</v>
       </c>
@@ -9338,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>10</v>
       </c>
@@ -9352,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>10</v>
       </c>
@@ -9366,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>10</v>
       </c>
@@ -9380,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>10</v>
       </c>
@@ -9394,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>10</v>
       </c>
@@ -9408,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>10</v>
       </c>
@@ -9422,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>10</v>
       </c>
@@ -9436,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>10</v>
       </c>
@@ -9450,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>10</v>
       </c>
@@ -9464,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>10</v>
       </c>
@@ -9478,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>10</v>
       </c>
@@ -9492,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>10</v>
       </c>
@@ -9506,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>10</v>
       </c>
@@ -9520,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>10</v>
       </c>
@@ -9534,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>10</v>
       </c>
@@ -9548,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>10</v>
       </c>
@@ -9562,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>10</v>
       </c>
@@ -9576,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>10</v>
       </c>
@@ -9590,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>10</v>
       </c>
@@ -9604,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>10</v>
       </c>
@@ -9618,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>10</v>
       </c>
@@ -9632,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>10</v>
       </c>
@@ -9646,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>10</v>
       </c>
@@ -9660,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>10</v>
       </c>
@@ -9674,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>10</v>
       </c>
@@ -9688,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>10</v>
       </c>
@@ -9702,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>10</v>
       </c>
@@ -9716,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>10</v>
       </c>
@@ -9730,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>10</v>
       </c>
@@ -9744,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>10</v>
       </c>
@@ -9758,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>10</v>
       </c>
@@ -9772,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>10</v>
       </c>
@@ -9786,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>10</v>
       </c>
@@ -9800,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>10</v>
       </c>
@@ -9814,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>10</v>
       </c>
@@ -9828,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>10</v>
       </c>
@@ -9842,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>10</v>
       </c>
@@ -9856,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>10</v>
       </c>
@@ -9870,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>10</v>
       </c>
@@ -9884,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>10</v>
       </c>
@@ -9898,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>10</v>
       </c>
@@ -9912,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>10</v>
       </c>
@@ -9926,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>10</v>
       </c>
@@ -9940,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>10</v>
       </c>
@@ -9954,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>10</v>
       </c>
@@ -9968,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>10</v>
       </c>
@@ -9982,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>10</v>
       </c>
@@ -9996,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>10</v>
       </c>
@@ -10010,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>10</v>
       </c>
@@ -10024,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>10</v>
       </c>
@@ -10038,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>10</v>
       </c>
@@ -10052,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>10</v>
       </c>
@@ -10066,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>10</v>
       </c>
@@ -10080,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>10</v>
       </c>
@@ -10094,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>10</v>
       </c>
@@ -10108,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>10</v>
       </c>
@@ -10122,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>10</v>
       </c>
@@ -10136,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>10</v>
       </c>
@@ -10150,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>10</v>
       </c>
@@ -10164,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>10</v>
       </c>
@@ -10178,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>10</v>
       </c>
@@ -10192,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>10</v>
       </c>
@@ -10206,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>10</v>
       </c>
@@ -10220,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>11</v>
       </c>
@@ -10234,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>11</v>
       </c>
@@ -10248,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>11</v>
       </c>
@@ -10262,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>11</v>
       </c>
@@ -10276,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>11</v>
       </c>
@@ -10290,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>11</v>
       </c>
@@ -10304,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>11</v>
       </c>
@@ -10318,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>11</v>
       </c>
@@ -10332,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>11</v>
       </c>
@@ -10346,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>11</v>
       </c>
@@ -10360,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>11</v>
       </c>
@@ -10374,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>11</v>
       </c>
@@ -10388,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>11</v>
       </c>
@@ -10402,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>11</v>
       </c>
@@ -10416,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>11</v>
       </c>
@@ -10430,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>11</v>
       </c>
@@ -10444,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>11</v>
       </c>
@@ -10458,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>11</v>
       </c>
@@ -10472,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>11</v>
       </c>
@@ -10486,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>11</v>
       </c>
@@ -10500,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>11</v>
       </c>
@@ -10514,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>11</v>
       </c>
@@ -10528,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>11</v>
       </c>
@@ -10542,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>11</v>
       </c>
@@ -10556,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>11</v>
       </c>
@@ -10570,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>11</v>
       </c>
@@ -10584,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>11</v>
       </c>
@@ -10598,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>11</v>
       </c>
@@ -10612,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>11</v>
       </c>
@@ -10626,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>11</v>
       </c>
@@ -10640,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>11</v>
       </c>
@@ -10654,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>11</v>
       </c>
@@ -10668,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>11</v>
       </c>
@@ -10682,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>11</v>
       </c>
@@ -10696,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>11</v>
       </c>
@@ -10710,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>11</v>
       </c>
@@ -10724,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>11</v>
       </c>
@@ -10738,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>11</v>
       </c>
@@ -10752,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>11</v>
       </c>
@@ -10766,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>11</v>
       </c>
@@ -10780,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>11</v>
       </c>
@@ -10794,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>11</v>
       </c>
@@ -10808,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A744">
         <v>11</v>
       </c>
@@ -10822,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>11</v>
       </c>
@@ -10836,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A746">
         <v>11</v>
       </c>
@@ -10850,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>11</v>
       </c>
@@ -10864,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A748">
         <v>11</v>
       </c>
@@ -10878,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>11</v>
       </c>
@@ -10892,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A750">
         <v>11</v>
       </c>
@@ -10906,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>11</v>
       </c>
@@ -10920,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A752">
         <v>11</v>
       </c>
@@ -10934,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>11</v>
       </c>
@@ -10948,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A754">
         <v>11</v>
       </c>
@@ -10962,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>11</v>
       </c>
@@ -10976,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A756">
         <v>11</v>
       </c>
@@ -10990,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>11</v>
       </c>
@@ -11004,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A758">
         <v>11</v>
       </c>
@@ -11018,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>11</v>
       </c>
@@ -11032,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A760">
         <v>11</v>
       </c>
@@ -11046,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>11</v>
       </c>
@@ -11060,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A762">
         <v>11</v>
       </c>
@@ -11074,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>11</v>
       </c>
@@ -11088,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A764">
         <v>11</v>
       </c>
@@ -11102,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>11</v>
       </c>
@@ -11116,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A766">
         <v>11</v>
       </c>
@@ -11130,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>11</v>
       </c>
@@ -11144,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A768">
         <v>11</v>
       </c>
@@ -11158,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>11</v>
       </c>
@@ -11172,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A770">
         <v>11</v>
       </c>
@@ -11186,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>11</v>
       </c>
@@ -11213,7 +11255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11226,7 +11268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
